--- a/input_file.xlsx
+++ b/input_file.xlsx
@@ -553,6 +553,9 @@
       <c r="O3" t="str">
         <v>MARRIOTT_Marriott_Instant</v>
       </c>
+      <c r="Q3" t="str">
+        <v>Submitted For Settlement</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -600,6 +603,9 @@
       <c r="O4" t="str">
         <v>MARRIOTT_Marriott_Instant</v>
       </c>
+      <c r="Q4" t="str">
+        <v>Submitted For Settlement</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -647,6 +653,9 @@
       <c r="O5" t="str">
         <v>MARRIOTT_Marriott_Instant</v>
       </c>
+      <c r="Q5" t="str">
+        <v>Submitted For Settlement</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -694,6 +703,9 @@
       <c r="O6" t="str">
         <v>MARRIOTT_Marriott_Instant</v>
       </c>
+      <c r="Q6" t="str">
+        <v>Submitted For Settlement</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -741,6 +753,9 @@
       <c r="O7" t="str">
         <v>MARRIOTT_Marriott_Instant</v>
       </c>
+      <c r="Q7" t="str">
+        <v>Submitted For Settlement</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -788,6 +803,9 @@
       <c r="O8" t="str">
         <v>MARRIOTT_Marriott_Instant</v>
       </c>
+      <c r="Q8" t="str">
+        <v>Submitted For Settlement</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -835,6 +853,9 @@
       <c r="O9" t="str">
         <v>MARRIOTT_Marriott_Instant</v>
       </c>
+      <c r="Q9" t="str">
+        <v>Submitted For Settlement</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -882,6 +903,9 @@
       <c r="O10" t="str">
         <v>MARRIOTT_Marriott_Instant</v>
       </c>
+      <c r="Q10" t="str">
+        <v>Submitted For Settlement</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -928,6 +952,9 @@
       </c>
       <c r="O11" t="str">
         <v>MARRIOTT_Marriott_Instant</v>
+      </c>
+      <c r="Q11" t="str">
+        <v>Submitted For Settlement</v>
       </c>
     </row>
     <row r="12">
